--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2012-至今)/资产总计.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2012-至今)/资产总计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AQ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1842,6 +1842,272 @@
         <v>11644.98</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>50541.91</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13173.28</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3542.95</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="F11" t="n">
+        <v>33421.95</v>
+      </c>
+      <c r="G11" t="n">
+        <v>87709.98</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10278.42</v>
+      </c>
+      <c r="I11" t="n">
+        <v>44053.13</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7012.61</v>
+      </c>
+      <c r="K11" t="n">
+        <v>6957.59</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4666.65</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3123.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9561.610000000001</v>
+      </c>
+      <c r="O11" t="n">
+        <v>44470.72</v>
+      </c>
+      <c r="P11" t="n">
+        <v>6598</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5689.64</v>
+      </c>
+      <c r="R11" t="n">
+        <v>27449.42</v>
+      </c>
+      <c r="S11" t="n">
+        <v>24077.29</v>
+      </c>
+      <c r="T11" t="n">
+        <v>89241.28</v>
+      </c>
+      <c r="U11" t="n">
+        <v>11702.64</v>
+      </c>
+      <c r="V11" t="n">
+        <v>68700.96000000001</v>
+      </c>
+      <c r="W11" t="n">
+        <v>15439.26</v>
+      </c>
+      <c r="X11" t="n">
+        <v>202577.01</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>89975.35000000001</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>7045.57</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>41344.07</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>22840.76</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>21840.83</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>11633.91</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1466716.3</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>153315.61</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>56217.77</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>15922.07</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>20521.25</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>2603.99</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>40861.98</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>31477.42</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>73304.25</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>7146.36</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>19040.19</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>69199.82000000001</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>12426.72</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>55794.4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14141.4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1724.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>35943.9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>95670.10000000001</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11231</v>
+      </c>
+      <c r="I12" t="n">
+        <v>47885.3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7371</v>
+      </c>
+      <c r="K12" t="n">
+        <v>7147.3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5671.9</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3248.2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9943.200000000001</v>
+      </c>
+      <c r="O12" t="n">
+        <v>48072.2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>6738</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6039.1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>28922.4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>26482.2</v>
+      </c>
+      <c r="T12" t="n">
+        <v>97297.8</v>
+      </c>
+      <c r="U12" t="n">
+        <v>10658.7</v>
+      </c>
+      <c r="V12" t="n">
+        <v>73210.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>16435.4</v>
+      </c>
+      <c r="X12" t="n">
+        <v>213137</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>108288.2</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>6984.4</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>44247.8</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>24114.8</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>22508.4</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>11418.6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1561196.7</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>169812.3</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>58111.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>16470.1</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>22641.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>2692.5</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>38804.3</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>19767.1</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>78880.3</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>8042.6</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>21304.3</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>71800.3</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>12534.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
